--- a/sample-data/sample_新生児高インスリン血症.xlsx
+++ b/sample-data/sample_新生児高インスリン血症.xlsx
@@ -752,7 +752,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -773,10 +773,10 @@
         <v>2025-01-01</v>
       </c>
       <c r="B2" t="str">
-        <v>入院</v>
+        <v>低血糖</v>
       </c>
       <c r="C2" t="str">
-        <v>生後6時間、哺乳不良・けいれんで発見。血糖28mg/dL</v>
+        <v>血糖28mg/dL、哺乳不良あり</v>
       </c>
     </row>
     <row r="3">
@@ -784,59 +784,70 @@
         <v>2025-01-01</v>
       </c>
       <c r="B3" t="str">
-        <v>検査</v>
+        <v>意識障害</v>
       </c>
       <c r="C3" t="str">
-        <v>血糖低値にも関わらずインスリン高値 - 高インスリン血症疑い</v>
+        <v>傾眠傾向、刺激で開眼</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-01-02</v>
+        <v>2025-01-01</v>
       </c>
       <c r="B4" t="str">
-        <v>検査</v>
+        <v>てんかん発作</v>
       </c>
       <c r="C4" t="str">
-        <v>GIR 12mg/kg/minでも低血糖持続、先天性高インスリン血症と診断</v>
+        <v>強直間代発作1回、約2分間</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025-01-03</v>
+        <v>2025-01-02</v>
       </c>
       <c r="B5" t="str">
-        <v>治療開始</v>
+        <v>低血糖</v>
       </c>
       <c r="C5" t="str">
-        <v>ジアゾキシド開始（10mg/kg/日）</v>
+        <v>血糖32mg/dL、GIR増量後</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025-01-07</v>
+        <v>2025-01-03</v>
       </c>
       <c r="B6" t="str">
-        <v>改善</v>
+        <v>低血糖</v>
       </c>
       <c r="C6" t="str">
-        <v>GIR減量開始可能、経口哺乳増量</v>
+        <v>血糖35mg/dL、ジアゾキシド開始</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025-01-14</v>
+        <v>2025-01-05</v>
       </c>
       <c r="B7" t="str">
-        <v>退院</v>
+        <v>低血糖</v>
       </c>
       <c r="C7" t="str">
-        <v>ジアゾキシド内服継続で退院。血糖安定</v>
+        <v>血糖48mg/dL、改善傾向</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-01-07</v>
+      </c>
+      <c r="B8" t="str">
+        <v>低血糖</v>
+      </c>
+      <c r="C8" t="str">
+        <v>血糖55mg/dL、GIR減量可能に</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>
